--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/56.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/56.xlsx
@@ -479,13 +479,13 @@
         <v>-8.66251535539527</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.217848006401798</v>
+        <v>-9.2239359272232</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.771129442267795</v>
+        <v>-1.734248425162652</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.981162172275195</v>
+        <v>-7.908748645257608</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.399468291827045</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.851764217695333</v>
+        <v>-9.860536060599289</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.76798728958578</v>
+        <v>-1.736487208948587</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.783586230090707</v>
+        <v>-7.724016252160854</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.056018042035456</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.42368837503329</v>
+        <v>-10.42304685219405</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.772779072425852</v>
+        <v>-1.738883100368623</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.58442611926237</v>
+        <v>-7.520967727388524</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.668023283367655</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.06175484632766</v>
+        <v>-11.06268439982942</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.766560228576032</v>
+        <v>-1.736552670462796</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.147522881131129</v>
+        <v>-7.090244056198578</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.248792582667767</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.70397157762284</v>
+        <v>-11.69688864178547</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.818916347640095</v>
+        <v>-1.787272251671643</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.893859513572687</v>
+        <v>-6.837641165170315</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.823699388934521</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.49532273058814</v>
+        <v>-12.49012508635997</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.615082284697262</v>
+        <v>-1.582796665889565</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.510700178606732</v>
+        <v>-6.453735568942382</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.406861573538333</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.1384428307794</v>
+        <v>-13.13283932516315</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.518330166696906</v>
+        <v>-1.488034577921152</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.876757782707514</v>
+        <v>-5.812670960297265</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.026651552875082</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.75901798547722</v>
+        <v>-13.75120188068071</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.413146605666479</v>
+        <v>-1.378360357016013</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.44984397164451</v>
+        <v>-5.395340714914405</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.700171193407893</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.40213808566849</v>
+        <v>-14.38900650591824</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.332995527669432</v>
+        <v>-1.302647569682311</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.068059328476936</v>
+        <v>-5.008659550484025</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.441248500014703</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.24470632735061</v>
+        <v>-15.22908721006043</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.203813775530121</v>
+        <v>-1.177524431423935</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.506334075052679</v>
+        <v>-4.44936946538833</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.258128660326175</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.01418024226738</v>
+        <v>-15.99874441721698</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.970129262108152</v>
+        <v>-0.940593026897218</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.963658122263134</v>
+        <v>-3.914143032915726</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.148419541574055</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.78081312746749</v>
+        <v>-16.76206494979813</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8760872507960337</v>
+        <v>-0.8446657239758911</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.483497915542831</v>
+        <v>-3.439547054903156</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.11827103650028</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.49753815423494</v>
+        <v>-17.4799551915185</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7025618689317964</v>
+        <v>-0.6703809885468337</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.924967184011955</v>
+        <v>-2.883150368735482</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.164234668372633</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.27844164953253</v>
+        <v>-18.25734994965451</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5123830778528835</v>
+        <v>-0.4797046899599352</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.640379797141355</v>
+        <v>-2.598458243442148</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.278954744395</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.14799312737145</v>
+        <v>-19.12573621254052</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3466738007851566</v>
+        <v>-0.3146893049428199</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.086536110027817</v>
+        <v>-2.040935619230086</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.453014352510377</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.97022902274038</v>
+        <v>-19.95302573680635</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1004730458464979</v>
+        <v>-0.07257334849077968</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.810733658364016</v>
+        <v>-1.768419335579557</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.669544348797622</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.72606075809606</v>
+        <v>-20.70033438301207</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02014634023432434</v>
+        <v>0.04109402478108605</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.375257481242524</v>
+        <v>-1.332720589309756</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.923193532892122</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.4648070382433</v>
+        <v>-21.43609561811139</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2870983951771189</v>
+        <v>0.3121701551190243</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9972172366876833</v>
+        <v>-0.9531747299281168</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.206064119976085</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.08975502209025</v>
+        <v>-22.06004858694237</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4345700943863213</v>
+        <v>0.4591574391230829</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.7643444460419017</v>
+        <v>-0.7246223992201047</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.510786592130688</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.70776408543109</v>
+        <v>-22.67822785022015</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6223399017423565</v>
+        <v>0.6454609085608448</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.440571796766016</v>
+        <v>-0.3976290434451545</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.831853130713704</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.165209146721</v>
+        <v>-23.13531941933334</v>
       </c>
       <c r="F22" t="n">
-        <v>0.797488729158968</v>
+        <v>0.8178079831693268</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.3175827038708413</v>
+        <v>-0.2723749821583612</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-7.159236893156797</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.604613014695</v>
+        <v>-23.57239285740152</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8860450655804031</v>
+        <v>0.9044790279815533</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1881783825832209</v>
+        <v>-0.1365161555697698</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-7.493661098811713</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.08003380778661</v>
+        <v>-24.05200318740247</v>
       </c>
       <c r="F24" t="n">
-        <v>1.033333472549821</v>
+        <v>1.049437005045144</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1927868731835084</v>
+        <v>-0.1527506110935101</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-7.835276227048873</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.32381248669954</v>
+        <v>-24.29589969704098</v>
       </c>
       <c r="F25" t="n">
-        <v>1.087011914200898</v>
+        <v>1.101675293383631</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.01783443030952299</v>
+        <v>0.02993938275993544</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.182653255695255</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.60019099968838</v>
+        <v>-24.56854690371993</v>
       </c>
       <c r="F26" t="n">
-        <v>1.222857648486648</v>
+        <v>1.236918781738662</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1180167316544109</v>
+        <v>-0.06983705719685893</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.533879402939268</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.64579149048611</v>
+        <v>-24.61887371584352</v>
       </c>
       <c r="F27" t="n">
-        <v>1.190035245262441</v>
+        <v>1.204279670754238</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3164436735236111</v>
+        <v>-0.2664179843653758</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.88011098015504</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.73347064261715</v>
+        <v>-24.70413079194885</v>
       </c>
       <c r="F28" t="n">
-        <v>1.119925963544998</v>
+        <v>1.134641711939098</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6642537908169058</v>
+        <v>-0.6112692412164404</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.220863685084471</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.55208987904788</v>
+        <v>-24.52077309065047</v>
       </c>
       <c r="F29" t="n">
-        <v>1.125882961337983</v>
+        <v>1.144107446893666</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7014883000987748</v>
+        <v>-0.6529551334644963</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.555237531132491</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.2890000534434</v>
+        <v>-24.25804984952556</v>
       </c>
       <c r="F30" t="n">
-        <v>1.013760479801441</v>
+        <v>1.034145195326008</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.018033998206028</v>
+        <v>-0.9671573093630802</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.878916332994901</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.07351384097143</v>
+        <v>-24.04111039143815</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9417789987776309</v>
+        <v>0.9624124680561912</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.214680386888753</v>
+        <v>-1.170415310980877</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-10.18629650085425</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.72443377030248</v>
+        <v>-23.69417745843526</v>
       </c>
       <c r="F32" t="n">
-        <v>0.923135559531013</v>
+        <v>0.9435595519641057</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.462046356780325</v>
+        <v>-1.415817435446191</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-10.46425601269212</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.39487432317055</v>
+        <v>-23.3660843492216</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8825363284188205</v>
+        <v>0.9052907507577403</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.733030840998372</v>
+        <v>-1.68735179638359</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-10.70813299024592</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.95778779279953</v>
+        <v>-22.92348595935421</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8285567638023839</v>
+        <v>0.8493211561093614</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.95677829656347</v>
+        <v>-1.918025080151961</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-10.91411966164571</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.58472262332455</v>
+        <v>-22.55560534180455</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7443077950158766</v>
+        <v>0.7682667092162353</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.205545142859107</v>
+        <v>-2.177409784052238</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.076139270453</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.02257841620935</v>
+        <v>-21.99130090472047</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7898690089050834</v>
+        <v>0.8146658304873126</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.482683009412765</v>
+        <v>-2.461761509471686</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.18950769486252</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.58026805700448</v>
+        <v>-21.54634590034157</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8046109419048669</v>
+        <v>0.8304551477144342</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.668580617462433</v>
+        <v>-2.647672209824197</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.24512520234133</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.09225246857914</v>
+        <v>-21.06160338762666</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9011273984540715</v>
+        <v>0.9258325739164086</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.802671983167392</v>
+        <v>-2.780781652816025</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.2449116831426</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.61527369144938</v>
+        <v>-20.58546251787877</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9175189616119125</v>
+        <v>0.9434548135413718</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.844004383238721</v>
+        <v>-2.826395235916599</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-11.19424806313627</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.96309371769163</v>
+        <v>-19.93066408355268</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9417004449605806</v>
+        <v>0.9669293125365866</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.953547681115443</v>
+        <v>-2.938845025024184</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-11.09733736483107</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.42734359310536</v>
+        <v>-19.39192891391849</v>
       </c>
       <c r="F41" t="n">
-        <v>1.014048510463959</v>
+        <v>1.040900823592339</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.103821133132775</v>
+        <v>-3.091579829975761</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.96023617076693</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.66266146102867</v>
+        <v>-18.62974741168457</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9939649179047511</v>
+        <v>1.019285431600649</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.317998115320571</v>
+        <v>-3.306764919482371</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.78449605330828</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.15424806477592</v>
+        <v>-18.11865009334927</v>
       </c>
       <c r="F43" t="n">
-        <v>1.087299944863416</v>
+        <v>1.114767596225357</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.362381021954023</v>
+        <v>-3.349982611162908</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.58066614781802</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.5831225379113</v>
+        <v>-17.55053579613825</v>
       </c>
       <c r="F44" t="n">
-        <v>1.060146508769676</v>
+        <v>1.083097315651222</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.520562224887757</v>
+        <v>-3.505925030310707</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.36072478992969</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.95306855595608</v>
+        <v>-16.91618753885093</v>
       </c>
       <c r="F45" t="n">
-        <v>1.066601014070647</v>
+        <v>1.091790604738128</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.687921132113541</v>
+        <v>-3.676949782332175</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.13165523085086</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.47762157825879</v>
+        <v>-16.43982409995473</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9169036233783514</v>
+        <v>0.9342509246436385</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.842056813469182</v>
+        <v>-3.834947693026125</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.898606027544426</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.86943174204925</v>
+        <v>-15.83732941548134</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9871831050327369</v>
+        <v>1.00654662093565</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.839634737443463</v>
+        <v>-3.826961388292672</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.659980364165445</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.25595261549165</v>
+        <v>-15.21651859933237</v>
       </c>
       <c r="F48" t="n">
-        <v>0.958118192724105</v>
+        <v>0.9811344611198595</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.99412391097583</v>
+        <v>-3.977234840310004</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.420200082605806</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.73714393078257</v>
+        <v>-14.70212202068096</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8902476947925971</v>
+        <v>0.9083281650170208</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.09136044418133</v>
+        <v>-4.079079864115791</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.184431265813124</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.21388386310731</v>
+        <v>-14.18285510537242</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8878779879782447</v>
+        <v>0.9037720436281002</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.187889993033377</v>
+        <v>-4.169757153597586</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.952084331594774</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.72809396616506</v>
+        <v>-13.70440999032438</v>
       </c>
       <c r="F51" t="n">
-        <v>0.992485487683636</v>
+        <v>1.011678803649606</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.29190833911089</v>
+        <v>-4.271130854501071</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.721405144083246</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.11909240717933</v>
+        <v>-13.0885218800439</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8925388477898992</v>
+        <v>0.906835642493064</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.40386062071049</v>
+        <v>-4.380215921778333</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.485896092917997</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.70129083889417</v>
+        <v>-12.676323817375</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9032745361201145</v>
+        <v>0.9171916540408693</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.602392301002424</v>
+        <v>-4.577176525729259</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.245438925537204</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.09413529460912</v>
+        <v>-12.06255666015488</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8721934091738569</v>
+        <v>0.8876161419214101</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.762982487659036</v>
+        <v>-4.741511110998605</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.003071492300634</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.70412868525695</v>
+        <v>-11.67586240342166</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8262525185022401</v>
+        <v>0.8445686501778149</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.981362099059027</v>
+        <v>-4.957717400126869</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.757973531957396</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.32526362562308</v>
+        <v>-11.30311144921488</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7547947295920993</v>
+        <v>0.7721420308573862</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.196115142571859</v>
+        <v>-5.17025784445945</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.510218178562788</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.77410386059209</v>
+        <v>-10.75178148424695</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7327603839094743</v>
+        <v>0.7506837464997972</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.272849129527216</v>
+        <v>-5.247083477534699</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.257671911238631</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.52967056653707</v>
+        <v>-10.5127684035684</v>
       </c>
       <c r="F58" t="n">
-        <v>0.659168549636132</v>
+        <v>0.6767776969582535</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.426408749557821</v>
+        <v>-5.401664297186959</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.003894603836309</v>
       </c>
       <c r="E59" t="n">
-        <v>-10.01971227854899</v>
+        <v>-10.00332071539115</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6846985401774979</v>
+        <v>0.7013388570893316</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.646176145059035</v>
+        <v>-5.621353138871122</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.756726659678004</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.872306040854001</v>
+        <v>-9.864660135994432</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6749971437717788</v>
+        <v>0.6882334619447639</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.704934400212701</v>
+        <v>-5.682612023867558</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.519680954614065</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.49107127440578</v>
+        <v>-9.487182860461786</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7154523595527124</v>
+        <v>0.7276805704068845</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.718642041287988</v>
+        <v>-5.692837112386946</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.295944765030145</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.214273807726007</v>
+        <v>-9.215491391890287</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6795401728578577</v>
+        <v>0.6900663843426055</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.8296254924773</v>
+        <v>-5.796986381492877</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.085219732806754</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.914093488170911</v>
+        <v>-8.9079401058353</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6409571563832911</v>
+        <v>0.6509727680572115</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.821246418658595</v>
+        <v>-5.794250090198957</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.88931721896835</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.615942475556285</v>
+        <v>-8.610849569750853</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5410628857009211</v>
+        <v>0.5511701434947337</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.757814211390433</v>
+        <v>-5.731760528735398</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.713222711071497</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.490675321966648</v>
+        <v>-8.488790030357441</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4061859818254592</v>
+        <v>0.4116454721104589</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.779756910953165</v>
+        <v>-5.749513691388779</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.55662116778715</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.296018963315866</v>
+        <v>-8.293544518078779</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3594857375890223</v>
+        <v>0.3675898730480507</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.771849160036763</v>
+        <v>-5.738345957064786</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.418199468283339</v>
       </c>
       <c r="E67" t="n">
-        <v>-8.162071612942166</v>
+        <v>-8.163354658620655</v>
       </c>
       <c r="F67" t="n">
-        <v>0.271466185584098</v>
+        <v>0.2784312906958962</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.728264883876657</v>
+        <v>-5.693452450620508</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.293795140659772</v>
       </c>
       <c r="E68" t="n">
-        <v>-8.027325632095122</v>
+        <v>-8.024772633040985</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2147765142794241</v>
+        <v>0.2227366344071935</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.679640071122487</v>
+        <v>-5.645220406951588</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.180551632517064</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.967794931073793</v>
+        <v>-7.962256886971743</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2046299795770864</v>
+        <v>0.2145801297367982</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.596647963408785</v>
+        <v>-5.562712714443031</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.080445467178409</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.978203311832965</v>
+        <v>-7.97232486785703</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1011222333104001</v>
+        <v>0.1117531832178816</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.487078480926379</v>
+        <v>-5.455591492592029</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.99180720624326</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.034015798847243</v>
+        <v>-8.033531383642099</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1009520333734576</v>
+        <v>0.1130493211992125</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.315883528967969</v>
+        <v>-5.286334201454194</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.913513375924124</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.063552034058178</v>
+        <v>-8.058734066612422</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0208271399820941</v>
+        <v>0.03132716686115841</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.222129548318369</v>
+        <v>-5.194190574054126</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.84337453865279</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.261834960596119</v>
+        <v>-8.259007023182306</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.02088493687164516</v>
+        <v>-0.008997125891357888</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.954457416719279</v>
+        <v>-4.926557719363561</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.78016994396867</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.396620218351689</v>
+        <v>-8.393726819423668</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.05999164545988092</v>
+        <v>-0.0534978632503848</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.824254464958313</v>
+        <v>-4.798370982240221</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.729189458049011</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.722657836019193</v>
+        <v>-8.72172828251743</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1545966257941935</v>
+        <v>-0.1414126768325753</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.572528758220447</v>
+        <v>-4.549394659099117</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.692558325227107</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.986074969194721</v>
+        <v>-8.983116108752492</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1388073085670719</v>
+        <v>-0.1290142660414608</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.264741810714308</v>
+        <v>-4.250431923708302</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.672896763613244</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.497578148918118</v>
+        <v>-9.494593103870203</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.219141678803903</v>
+        <v>-0.207528806183292</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.051350366697015</v>
+        <v>-4.029407667134282</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.671704926201373</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.951802503708961</v>
+        <v>-9.949485166105976</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1748242336846603</v>
+        <v>-0.1603703313473947</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.951364449894753</v>
+        <v>-3.930154919291157</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.688887620199413</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.38582543521502</v>
+        <v>-10.3876059884015</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2411498398808445</v>
+        <v>-0.2274683834112408</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.797071660905011</v>
+        <v>-3.776307268598034</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.731241172001991</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.98763931994064</v>
+        <v>-10.98449716725863</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.2969099576837558</v>
+        <v>-0.2804529330117062</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.468598874908946</v>
+        <v>-3.447899944116177</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.801081116814428</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.67718472600867</v>
+        <v>-11.67125391282137</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.316928088728755</v>
+        <v>-0.3000390180629284</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.314306085919204</v>
+        <v>-3.294130847240105</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.899956961934508</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.51107277090673</v>
+        <v>-12.50683086478601</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3868148012978888</v>
+        <v>-0.369310392398501</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.973159950772348</v>
+        <v>-2.953901173292169</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.027757444105201</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.42621164724054</v>
+        <v>-13.42041175708166</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3705410688656233</v>
+        <v>-0.3504181993978903</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.81585593212901</v>
+        <v>-2.795654508844226</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.180307192344387</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.38772346023975</v>
+        <v>-14.37531195714579</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4214439423142542</v>
+        <v>-0.4030230722159456</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.547031677879848</v>
+        <v>-2.526280377875712</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.362702762801319</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.60538617833732</v>
+        <v>-15.59529201284635</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4830170425788919</v>
+        <v>-0.4601578818172382</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.351105365853418</v>
+        <v>-2.33110032711126</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.575047591844417</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.66515572416368</v>
+        <v>-16.65529722012386</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5787217763519095</v>
+        <v>-0.5555876772305796</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.119502528583284</v>
+        <v>-2.093985630344759</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.817510097031927</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.84977346988874</v>
+        <v>-17.83435073714118</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5069104952650419</v>
+        <v>-0.4848499649767335</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.058086535952746</v>
+        <v>-2.036680620806524</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.089075644042188</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.21708120946724</v>
+        <v>-19.20105623078897</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6627219913844239</v>
+        <v>-0.6403734304335975</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.027385085788899</v>
+        <v>-2.00456520193577</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.382975127684492</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.75646108529455</v>
+        <v>-20.73413870894941</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6427038603394247</v>
+        <v>-0.6217561757926631</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.013808367742029</v>
+        <v>-1.990844468557641</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.705202470997582</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.39637675464347</v>
+        <v>-22.37215599438628</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6917607190873724</v>
+        <v>-0.6678934510069058</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.02640316307577</v>
+        <v>-2.000820803323037</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.055990071924746</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.104568783312</v>
+        <v>-24.08068842292869</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8270172997452444</v>
+        <v>-0.8073264762712884</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.062930688004185</v>
+        <v>-2.037845835759438</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.434818512557048</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.84536064605642</v>
+        <v>-25.8215064702788</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8776059579256739</v>
+        <v>-0.8563047812021856</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.132332985368175</v>
+        <v>-2.103097873122601</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.839392566433984</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.87817632368555</v>
+        <v>-27.851585856614</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.050097047865415</v>
+        <v>-1.028429286662358</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.320757407866297</v>
+        <v>-2.29507030969083</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.258203521452897</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.92522333450362</v>
+        <v>-29.90157863557147</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.079057221751313</v>
+        <v>-1.056878860737429</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.38456929191687</v>
+        <v>-2.362443300114352</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.693082229405448</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.12806874913824</v>
+        <v>-32.10020832869105</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.328897636879971</v>
+        <v>-1.301665646969181</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.597646520665961</v>
+        <v>-2.575101575172509</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.138233928195289</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.38891306536171</v>
+        <v>-34.3634616286374</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.451886729775146</v>
+        <v>-1.427364846552593</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.811862779762283</v>
+        <v>-2.789710603354083</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.583697517538951</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.59953530788432</v>
+        <v>-36.57476467090777</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.614336023435283</v>
+        <v>-1.594907046018162</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.908889836122315</v>
+        <v>-2.882168446022352</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.01930852239306</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.93140536702415</v>
+        <v>-38.90582300727142</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.880109771122322</v>
+        <v>-1.860955732064877</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.160248958380614</v>
+        <v>-3.135399767587018</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.42019069588169</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.23358208331894</v>
+        <v>-41.21102404552265</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.891447705383257</v>
+        <v>-1.874231327146387</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.382268229970605</v>
+        <v>-3.369424680882871</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.78290352185804</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.56985115621359</v>
+        <v>-43.54561730365356</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.220116875921948</v>
+        <v>-2.205230927590906</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.47386198065132</v>
+        <v>-3.449732866514019</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.0846531020206</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.89399675667681</v>
+        <v>-45.87087574985831</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.266489812587342</v>
+        <v>-2.2516038642563</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.726307764045482</v>
+        <v>-3.707048986565303</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.32161035463864</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.42150509718054</v>
+        <v>-48.40452438039483</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.522758548411288</v>
+        <v>-2.514025982415857</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.779855282668142</v>
+        <v>-3.757140137237747</v>
       </c>
     </row>
   </sheetData>
